--- a/biology/Botanique/Microtea/Microtea.xlsx
+++ b/biology/Botanique/Microtea/Microtea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microtea est un genre de plantes à fleurs de la famille des Microteaceae [2] (anciennement Phytolaccaceae), originaires des îles des Caraïbes, d'Amérique centrale et d'Amérique du Sud . 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microtea est un genre de plantes à fleurs de la famille des Microteaceae  (anciennement Phytolaccaceae), originaires des îles des Caraïbes, d'Amérique centrale et d'Amérique du Sud . 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Microtea était à l'origine placé dans les Phytolaccaceae, mais a maintenant sa propre famille, les Microteaceae[2].
-Selon Tropicos                                           (28 juillet 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Microtea était à l'origine placé dans les Phytolaccaceae, mais a maintenant sa propre famille, les Microteaceae.
+Selon Tropicos                                           (28 juillet 2020) (Attention liste brute contenant possiblement des synonymes) :
 Microtea bahiensis Marchior. &amp; J.C. Siqueira
 Microtea burchellii Hook. f.
 Microtea debilis Sw.
